--- a/app/data/absenteeism_data_21.xlsx
+++ b/app/data/absenteeism_data_21.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22802</v>
+        <v>19929</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Daniela Mendes</t>
+          <t>Carlos Eduardo Costa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,89 +490,89 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45103</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>5358.16</v>
+        <v>7939.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61509</v>
+        <v>97013</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caroline Lopes</t>
+          <t>Valentina Rocha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45084</v>
+        <v>45098</v>
       </c>
       <c r="G3" t="n">
-        <v>6431.6</v>
+        <v>9315.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>24691</v>
+        <v>14771</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alícia da Costa</t>
+          <t>Laís Pereira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45102</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>9760.790000000001</v>
+        <v>9443.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>54938</v>
+        <v>13868</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Emanuella Azevedo</t>
+          <t>Leonardo Fernandes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45085</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>8145.54</v>
+        <v>10783.82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50594</v>
+        <v>97243</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mariana Moreira</t>
+          <t>Joaquim da Costa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,158 +610,158 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>7634.67</v>
+        <v>8126.23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>36232</v>
+        <v>65333</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fernanda Santos</t>
+          <t>Marcela Ribeiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45101</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>7391.71</v>
+        <v>3142.56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>27917</v>
+        <v>50278</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sofia Martins</t>
+          <t>Luiz Otávio Rodrigues</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45106</v>
       </c>
       <c r="G8" t="n">
-        <v>11854.42</v>
+        <v>5481.49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>61175</v>
+        <v>12654</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>João Miguel da Conceição</t>
+          <t>Emilly Ribeiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45078</v>
+        <v>45102</v>
       </c>
       <c r="G9" t="n">
-        <v>4440.46</v>
+        <v>10347.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>54745</v>
+        <v>94680</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sofia Azevedo</t>
+          <t>Nina Mendes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45102</v>
+        <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>7833.78</v>
+        <v>10372.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>72227</v>
+        <v>84723</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Srta. Bruna Fogaça</t>
+          <t>Leandro Caldeira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45093</v>
+        <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>5079.34</v>
+        <v>11510.32</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_21.xlsx
+++ b/app/data/absenteeism_data_21.xlsx
@@ -476,127 +476,127 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10002</v>
+        <v>35411</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Renan Melo</t>
+          <t>Sr. Murilo Pires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45093</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>3396.39</v>
+        <v>10851.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56472</v>
+        <v>72084</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Vitória da Mata</t>
+          <t>Maria Luiza Costela</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>11660.24</v>
+        <v>4220.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>44112</v>
+        <v>51503</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Alice Moraes</t>
+          <t>Pedro Lucas Cunha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45105</v>
       </c>
       <c r="G4" t="n">
-        <v>5081.62</v>
+        <v>10075.77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>33539</v>
+        <v>86704</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Heitor Duarte</t>
+          <t>Vicente Aragão</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45087</v>
+        <v>45103</v>
       </c>
       <c r="G5" t="n">
-        <v>5566.67</v>
+        <v>6283.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16122</v>
+        <v>94916</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Felipe Nascimento</t>
+          <t>Maysa Lopes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,60 +606,60 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>10211.42</v>
+        <v>5331.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>36327</v>
+        <v>55524</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Gabriel das Neves</t>
+          <t>Vitor Hugo Nascimento</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="G7" t="n">
-        <v>10094.32</v>
+        <v>7453.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96223</v>
+        <v>45804</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rebeca Sales</t>
+          <t>Sra. Juliana Castro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,56 +668,56 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45088</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>3081.44</v>
+        <v>8328.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>78740</v>
+        <v>93986</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mariane Fernandes</t>
+          <t>Leonardo Farias</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45095</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>7460.5</v>
+        <v>8873.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>42936</v>
+        <v>55685</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Leandro Nogueira</t>
+          <t>Enzo Gabriel Nogueira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45102</v>
+        <v>45104</v>
       </c>
       <c r="G10" t="n">
-        <v>3885.05</v>
+        <v>10715.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>28282</v>
+        <v>3433</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Srta. Nicole Duarte</t>
+          <t>Amanda Barros</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45103</v>
+        <v>45106</v>
       </c>
       <c r="G11" t="n">
-        <v>5685.07</v>
+        <v>6897.44</v>
       </c>
     </row>
   </sheetData>
